--- a/src/RendimientoGraficas.xlsx
+++ b/src/RendimientoGraficas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Documents\Portfolio\CriptoSimulacion\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D8649F-B43F-448E-9C4A-6A48FAB1CE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BF5053-103B-45B0-BB53-D86A4C424031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14325" yWindow="2970" windowWidth="17670" windowHeight="13080" xr2:uid="{0790706D-DB61-4DC9-8B2F-3B40A4C0AF46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{66EF420D-A49C-455D-B589-539E53BD04B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -51,6 +51,24 @@
     <t>NVIDIA GTX 1050ti</t>
   </si>
   <si>
+    <t>Zhash</t>
+  </si>
+  <si>
+    <t>Ethash</t>
+  </si>
+  <si>
+    <t>CryptoNightGPU</t>
+  </si>
+  <si>
+    <t>RandomX</t>
+  </si>
+  <si>
+    <t>Autolykos</t>
+  </si>
+  <si>
+    <t>Etchash</t>
+  </si>
+  <si>
     <t>AMD RX 580</t>
   </si>
   <si>
@@ -64,31 +82,13 @@
   </si>
   <si>
     <t xml:space="preserve">NVIDIA RTX 3080 </t>
-  </si>
-  <si>
-    <t>Zhash</t>
-  </si>
-  <si>
-    <t>Ethash</t>
-  </si>
-  <si>
-    <t>CryptoNightGPU</t>
-  </si>
-  <si>
-    <t>RandomX</t>
-  </si>
-  <si>
-    <t>Autolykos</t>
-  </si>
-  <si>
-    <t>Etchash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,13 +98,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -129,21 +122,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,57 +444,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC45A711-35AD-458B-867B-FEE452460D42}">
-  <dimension ref="A1:F43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEE2837-7CFE-4A72-88C2-5D92CB5F1B98}">
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="4">
-        <f>19000000</f>
         <v>19000000</v>
       </c>
       <c r="D2" s="4">
         <v>80</v>
       </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -515,14 +497,13 @@
       <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4">
         <v>550</v>
@@ -530,14 +511,13 @@
       <c r="D4" s="4">
         <v>70</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5">
         <v>200</v>
@@ -545,14 +525,13 @@
       <c r="D5" s="4">
         <v>60</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4">
         <v>22000000</v>
@@ -560,14 +539,13 @@
       <c r="D6" s="4">
         <v>70</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
@@ -575,28 +553,27 @@
       <c r="D7" s="4">
         <v>0</v>
       </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="C8" s="5">
-        <v>21</v>
+        <v>21000000</v>
       </c>
       <c r="D8" s="5">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>5</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5">
         <v>30500000</v>
@@ -605,12 +582,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>5</v>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5">
         <v>760</v>
@@ -619,12 +596,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>5</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C11" s="5">
         <v>470</v>
@@ -633,12 +610,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>5</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C12" s="5">
         <v>595000000</v>
@@ -647,12 +624,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>5</v>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="5">
         <v>30500000</v>
@@ -661,12 +638,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>10</v>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C14" s="5">
         <v>38</v>
@@ -675,12 +652,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
       </c>
       <c r="C15" s="5">
         <v>40500000</v>
@@ -689,12 +666,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>6</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C16" s="5">
         <v>1250</v>
@@ -704,11 +681,11 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>6</v>
+      <c r="A17" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -718,11 +695,11 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>6</v>
+      <c r="A18" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C18" s="5">
         <v>80000000</v>
@@ -732,11 +709,11 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>6</v>
+      <c r="A19" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C19" s="5">
         <v>40500000</v>
@@ -746,11 +723,11 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>10</v>
+      <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C20" s="5">
         <v>57</v>
@@ -760,11 +737,11 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>7</v>
+      <c r="A21" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C21" s="5">
         <v>30000000</v>
@@ -774,11 +751,11 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
         <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
       </c>
       <c r="C22" s="5">
         <v>1600</v>
@@ -788,11 +765,11 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>7</v>
+      <c r="A23" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C23" s="5">
         <v>600</v>
@@ -802,11 +779,11 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>7</v>
+      <c r="A24" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C24" s="5">
         <v>54200000</v>
@@ -816,11 +793,11 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>7</v>
+      <c r="A25" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C25" s="5">
         <v>30000000</v>
@@ -830,11 +807,11 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>10</v>
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C26" s="5">
         <v>46</v>
@@ -844,11 +821,11 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>8</v>
+      <c r="A27" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C27" s="5">
         <v>55000000</v>
@@ -858,11 +835,11 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>8</v>
+      <c r="A28" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C28" s="5">
         <v>1500</v>
@@ -872,11 +849,11 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
         <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -886,11 +863,11 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>8</v>
+      <c r="A30" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C30" s="5">
         <v>100000000</v>
@@ -900,11 +877,11 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>8</v>
+      <c r="A31" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C31" s="5">
         <v>55000000</v>
@@ -914,11 +891,11 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>10</v>
+      <c r="A32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C32" s="5">
         <v>134</v>
@@ -928,11 +905,11 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>9</v>
+      <c r="A33" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C33" s="5">
         <v>91500000</v>
@@ -942,11 +919,11 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>9</v>
+      <c r="A34" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C34" s="5">
         <v>3700</v>
@@ -956,11 +933,11 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>9</v>
+      <c r="A35" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C35" s="5">
         <v>1500</v>
@@ -970,11 +947,11 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
         <v>9</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
       </c>
       <c r="C36" s="5">
         <v>190000000</v>
@@ -984,11 +961,11 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>9</v>
+      <c r="A37" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C37" s="5">
         <v>91500000</v>
@@ -996,25 +973,6 @@
       <c r="D37" s="5">
         <v>230</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="3"/>
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
